--- a/Packages/cn.etetet.wow/Luban/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Base/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12360"/>
+    <workbookView windowWidth="21195" windowHeight="12142"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-  <si>
-    <t>AI</t>
   </si>
   <si>
     <t>Unit</t>
@@ -1048,13 +1045,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="18.8761061946903" customWidth="1"/>
     <col min="3" max="3" width="41.3716814159292" customWidth="1"/>
@@ -1160,94 +1157,70 @@
         <v>27</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C7" si="0">_xlfn.CONCAT("cn.etetet.wow.",B4,"ConfigCategory")</f>
-        <v>cn.etetet.wow.AIConfigCategory</v>
+        <f>_xlfn.CONCAT("cn.etetet.wow.",B4,"ConfigCategory")</f>
+        <v>cn.etetet.wow.UnitConfigCategory</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D7" si="1">_xlfn.CONCAT(B4,"Config")</f>
-        <v>AIConfig</v>
+        <f>_xlfn.CONCAT(B4,"Config")</f>
+        <v>UnitConfig</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="str">
         <f>_xlfn.CONCAT("..\..\..\..\..\cn.etetet.wow\Luban\Datas\",B4,".xlsx")</f>
-        <v>..\..\..\..\..\cn.etetet.wow\Luban\Datas\AI.xlsx</v>
+        <v>..\..\..\..\..\cn.etetet.wow\Luban\Datas\Unit.xlsx</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L7" si="2">_xlfn.CONCAT(B4,"ConfigCategory")</f>
-        <v>AIConfigCategory</v>
+        <f>_xlfn.CONCAT(B4,"ConfigCategory")</f>
+        <v>UnitConfigCategory</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="2:12">
+    <row r="5" spans="2:12">
       <c r="B5" t="s">
         <v>28</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>cn.etetet.wow.UnitConfigCategory</v>
+        <f>_xlfn.CONCAT("cn.etetet.wow.",B5,"ConfigCategory")</f>
+        <v>cn.etetet.wow.TextConfigCategory</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v>UnitConfig</v>
+        <f>_xlfn.CONCAT(B5,"Config")</f>
+        <v>TextConfig</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="str">
         <f>_xlfn.CONCAT("..\..\..\..\..\cn.etetet.wow\Luban\Datas\",B5,".xlsx")</f>
-        <v>..\..\..\..\..\cn.etetet.wow\Luban\Datas\Unit.xlsx</v>
+        <v>..\..\..\..\..\cn.etetet.wow\Luban\Datas\Text.xlsx</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="2"/>
-        <v>UnitConfigCategory</v>
+        <f>_xlfn.CONCAT(B5,"ConfigCategory")</f>
+        <v>TextConfigCategory</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" customFormat="1" spans="2:12">
       <c r="B6" t="s">
         <v>29</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>cn.etetet.wow.TextConfigCategory</v>
+        <f>_xlfn.CONCAT("cn.etetet.wow.",B6,"ConfigCategory")</f>
+        <v>cn.etetet.wow.NumericTypeConfigCategory</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="1"/>
-        <v>TextConfig</v>
+        <f>_xlfn.CONCAT(B6,"Config")</f>
+        <v>NumericTypeConfig</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="str">
         <f>_xlfn.CONCAT("..\..\..\..\..\cn.etetet.wow\Luban\Datas\",B6,".xlsx")</f>
-        <v>..\..\..\..\..\cn.etetet.wow\Luban\Datas\Text.xlsx</v>
+        <v>..\..\..\..\..\cn.etetet.wow\Luban\Datas\NumericType.xlsx</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="2"/>
-        <v>TextConfigCategory</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="2:12">
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>cn.etetet.wow.NumericTypeConfigCategory</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v>NumericTypeConfig</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="str">
-        <f>_xlfn.CONCAT("..\..\..\..\..\cn.etetet.wow\Luban\Datas\",B7,".xlsx")</f>
-        <v>..\..\..\..\..\cn.etetet.wow\Luban\Datas\NumericType.xlsx</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(B6,"ConfigCategory")</f>
         <v>NumericTypeConfigCategory</v>
       </c>
     </row>

--- a/Packages/cn.etetet.wow/Luban/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Base/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2781C3D-3CFE-D84D-BEF6-A231387A8D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBBE411-1FAE-1740-BCF6-7AD696D4CA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13520" yWindow="7360" windowWidth="21200" windowHeight="12140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>Map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapTransferRule</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -685,6 +689,30 @@
         <v>MapConfigCategory</v>
       </c>
     </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("cn.etetet.wow.",B8,"ConfigCategory")</f>
+        <v>cn.etetet.wow.MapTransferRuleConfigCategory</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT(B8,"Config")</f>
+        <v>MapTransferRuleConfig</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("..\..\..\..\..\cn.etetet.wow\Luban\Datas\",B8,".xlsx")</f>
+        <v>..\..\..\..\..\cn.etetet.wow\Luban\Datas\MapTransferRule.xlsx</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT(B8,"ConfigCategory")</f>
+        <v>MapTransferRuleConfigCategory</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
